--- a/documentation/Messreihen.xlsx
+++ b/documentation/Messreihen.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matthiassimons/OneDrive - Fachhochschule Aachen/Python/imu_iot/documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7305413F-1B77-8A4A-9C2D-AA643B458AD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13898E5E-F835-4743-BE4F-934C279F421C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14480" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
   <si>
     <t>Messreihe</t>
   </si>
@@ -64,6 +64,9 @@
   </si>
   <si>
     <t>x</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30 ° Pflegeleicht </t>
   </si>
 </sst>
 </file>
@@ -445,10 +448,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -531,6 +534,26 @@
         <v>12</v>
       </c>
     </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1">
+        <v>44553</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="D3">
+        <v>3.1</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3">
+        <v>1000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
